--- a/SubRES_Tmpl/SubRES_dem-Transport.xlsx
+++ b/SubRES_Tmpl/SubRES_dem-Transport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAB5098-2DEB-4462-834C-070084C2D3AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC453EF8-AE2A-4465-99BB-67C30FB44972}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="864" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,12 +244,6 @@
     <t>~FI_Comm</t>
   </si>
   <si>
-    <t>sets</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
@@ -284,6 +278,12 @@
   </si>
   <si>
     <t>DEM</t>
+  </si>
+  <si>
+    <t>Csets</t>
+  </si>
+  <si>
+    <t>CommName</t>
   </si>
 </sst>
 </file>
@@ -8675,7 +8675,7 @@
   <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8687,96 +8687,96 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
         <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
         <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>60</v>
@@ -19295,18 +19295,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19326,18 +19326,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A17DC26-DCEA-4E6B-A7AA-D29914C7725A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA1A3B8B-F4C8-4D02-99CE-92C1CB940F40}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A17DC26-DCEA-4E6B-A7AA-D29914C7725A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SubRES_Tmpl/SubRES_dem-Transport.xlsx
+++ b/SubRES_Tmpl/SubRES_dem-Transport.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC453EF8-AE2A-4465-99BB-67C30FB44972}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA72E32C-AB9A-4900-92A9-C972922DE3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="864" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="864" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comm" sheetId="11" r:id="rId1"/>
@@ -34,12 +34,17 @@
     <definedName name="TSUB_COST">'[1]TechRep-Doc'!#REF!</definedName>
     <definedName name="x">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="95">
   <si>
     <t>Electric range (km)</t>
   </si>
@@ -284,6 +289,54 @@
   </si>
   <si>
     <t>CommName</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>PJ-Yr</t>
+  </si>
+  <si>
+    <t>~FI_T</t>
+  </si>
+  <si>
+    <t>techname</t>
+  </si>
+  <si>
+    <t>comm-OUT</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>ELCINDEA02</t>
+  </si>
+  <si>
+    <t>ELCINDNE02</t>
+  </si>
+  <si>
+    <t>ELCINDNO02</t>
+  </si>
+  <si>
+    <t>ELCINDSO02</t>
+  </si>
+  <si>
+    <t>ELCINDWE02</t>
+  </si>
+  <si>
+    <t>Comm-IN</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>FT_Transport</t>
+  </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>ENV_ACT~CO2IND</t>
   </si>
 </sst>
 </file>
@@ -8097,7 +8150,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="New Microsoft Excel Worksheet"/>
@@ -8114,7 +8167,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -8233,7 +8286,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -8352,9 +8405,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8392,9 +8445,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8427,26 +8480,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8479,26 +8515,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8672,20 +8691,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E606A84-5764-42E9-BFF9-13AC3C96AE4B}">
-  <dimension ref="B3:D14"/>
+  <dimension ref="B3:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.06640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.06640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>77</v>
       </c>
@@ -8695,8 +8738,44 @@
       <c r="D4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>66</v>
       </c>
@@ -8706,80 +8785,304 @@
       <c r="D5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="str">
+        <f>"MIN"&amp;C5</f>
+        <v>MINTRAGSL</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="str">
+        <f>G5</f>
+        <v>MINTRAGSL</v>
+      </c>
+      <c r="N5" t="str">
+        <f>C5</f>
+        <v>TRAGSL</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>72</v>
       </c>
       <c r="D6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f t="shared" ref="G6:G11" si="0">"MIN"&amp;C6</f>
+        <v>MINTRADST</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" ref="M6:M11" si="1">G6</f>
+        <v>MINTRADST</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" ref="N6:N11" si="2">C6</f>
+        <v>TRADST</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>MINTRAGH2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>MINTRAGH2</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="2"/>
+        <v>TRAGH2</v>
+      </c>
+      <c r="O7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>68</v>
       </c>
       <c r="D8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>MINTRANGA</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>MINTRANGA</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="2"/>
+        <v>TRANGA</v>
+      </c>
+      <c r="O8">
+        <v>12</v>
+      </c>
+      <c r="S8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>69</v>
       </c>
       <c r="D9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G9" s="13" t="str">
+        <f>"\I: MIN"&amp;C9</f>
+        <v>\I: MINTRDELC</v>
+      </c>
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>\I: MINTRDELC</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="2"/>
+        <v>TRDELC</v>
+      </c>
+      <c r="O9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>MINTRABGS</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>MINTRABGS</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="2"/>
+        <v>TRABGS</v>
+      </c>
+      <c r="O10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>MINTRABDS</v>
+      </c>
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>MINTRABDS</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="2"/>
+        <v>TRABDS</v>
+      </c>
+      <c r="O11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
+      <c r="J12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" t="str">
+        <f>G12</f>
+        <v>FT_Transport</v>
+      </c>
+      <c r="N12" t="str">
+        <f>N9</f>
+        <v>TRDELC</v>
+      </c>
+      <c r="P12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="16">
+        <f>V12/SUM($V$12:$V$16)</f>
+        <v>0.12887091001767761</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>594.14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="P13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="16">
+        <f>V13/SUM($V$12:$V$16)</f>
+        <v>2.6991443165920156E-2</v>
+      </c>
+      <c r="V13">
+        <v>124.44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="P14" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q14" s="16">
+        <f>V14/SUM($V$12:$V$16)</f>
+        <v>0.26056806966933094</v>
+      </c>
+      <c r="V14">
+        <v>1201.31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="P15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q15" s="16">
+        <f>V15/SUM($V$12:$V$16)</f>
+        <v>0.30806988623423381</v>
+      </c>
+      <c r="V15">
+        <v>1420.31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="P16" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="16">
+        <f>V16/SUM($V$12:$V$16)</f>
+        <v>0.27549969091283744</v>
+      </c>
+      <c r="V16">
+        <v>1270.1500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8794,27 +9097,27 @@
   </sheetPr>
   <dimension ref="B1:W199"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView showGridLines="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15:W16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="6" width="6.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.59765625" customWidth="1"/>
+    <col min="2" max="2" width="38.265625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" customWidth="1"/>
+    <col min="4" max="6" width="6.265625" customWidth="1"/>
+    <col min="10" max="10" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="62.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.85546875" customWidth="1"/>
+    <col min="18" max="18" width="62.86328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" ht="15.75" x14ac:dyDescent="0.45">
       <c r="B1" s="22" t="s">
         <v>10</v>
       </c>
@@ -8833,7 +9136,7 @@
         <v>Trd_car_gsl</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
@@ -8858,7 +9161,7 @@
         <v>Trd_car_gsl-hyb</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.45">
       <c r="I3" s="17">
         <f>31536000/10^9</f>
         <v>3.1536000000000002E-2</v>
@@ -8877,7 +9180,7 @@
         <v>Trd_car_gsl-pih</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.45">
       <c r="I4" s="18">
         <v>3.7999999999999999E-2</v>
       </c>
@@ -8895,7 +9198,7 @@
         <v>Trd_car_dsl</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.45">
       <c r="I5" s="21">
         <f>1.406/26.137</f>
         <v>5.3793472854573969E-2</v>
@@ -8914,7 +9217,7 @@
         <v>Trd_car_dsl-hyb</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.45">
       <c r="I6" s="21">
         <v>2.5590000000000002E-2</v>
       </c>
@@ -8932,7 +9235,7 @@
         <v>Trd_car_dsl-pih</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
       <c r="Q7" t="s">
         <v>31</v>
       </c>
@@ -8944,7 +9247,7 @@
         <v>Trd_car_cng</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.45">
       <c r="Q8" t="s">
         <v>32</v>
       </c>
@@ -8956,7 +9259,7 @@
         <v>\I:Trd_car_lpg</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q9" t="s">
         <v>36</v>
       </c>
@@ -8968,7 +9271,7 @@
         <v>\I:Trd_car_E85</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
@@ -8983,7 +9286,7 @@
         <v>Trd_car_elc</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="25">
         <v>2015</v>
       </c>
@@ -9000,7 +9303,7 @@
         <v>Trd_car_hh2</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -9020,7 +9323,7 @@
         <v>0.46605286801155565</v>
       </c>
     </row>
-    <row r="13" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -9037,13 +9340,13 @@
         <v>0.90149999999999997</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B14" s="40"/>
       <c r="C14" s="41"/>
       <c r="D14" s="42"/>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="40"/>
       <c r="C15" s="41"/>
       <c r="D15" s="42"/>
@@ -9059,7 +9362,7 @@
       <c r="V15" s="45"/>
       <c r="W15" s="45"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.45">
       <c r="I16" t="s">
         <v>38</v>
       </c>
@@ -9107,7 +9410,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="26" t="s">
         <v>16</v>
       </c>
@@ -9163,7 +9466,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -9215,7 +9518,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -9267,7 +9570,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B20" s="9">
         <v>0</v>
       </c>
@@ -9323,7 +9626,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B21" s="5">
         <v>0.13362395894197165</v>
       </c>
@@ -9389,7 +9692,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B22" s="5">
         <v>0.23362395894197169</v>
       </c>
@@ -9455,7 +9758,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B23" s="5">
         <v>0.33362395894197167</v>
       </c>
@@ -9521,7 +9824,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B24" s="5">
         <v>0.38362395894197165</v>
       </c>
@@ -9587,7 +9890,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B25" s="5">
         <v>0.4336239589419717</v>
       </c>
@@ -9653,7 +9956,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B26" s="5">
         <v>0.48362395894197163</v>
       </c>
@@ -9719,7 +10022,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.45">
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -9767,7 +10070,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J28" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl</v>
@@ -9811,7 +10114,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J29" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl</v>
@@ -9855,7 +10158,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J30" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl</v>
@@ -9899,7 +10202,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="26" t="s">
         <v>16</v>
       </c>
@@ -9952,7 +10255,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
@@ -10001,7 +10304,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
@@ -10050,7 +10353,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B34" s="9"/>
       <c r="C34" s="10">
         <v>2020</v>
@@ -10107,7 +10410,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B35" s="5">
         <v>0.23611493530451888</v>
       </c>
@@ -10170,7 +10473,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B36" s="5">
         <v>0.33611493530451886</v>
       </c>
@@ -10233,7 +10536,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B37" s="5">
         <v>0.38611493530451879</v>
       </c>
@@ -10296,7 +10599,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B38" s="5">
         <v>0.43611493530451884</v>
       </c>
@@ -10359,7 +10662,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B39" s="5">
         <v>0.48611493530451888</v>
       </c>
@@ -10422,7 +10725,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B40" s="5">
         <v>0.53611493530451892</v>
       </c>
@@ -10485,7 +10788,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B41" s="5">
         <v>0.58611493530451886</v>
       </c>
@@ -10548,7 +10851,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.45">
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -10596,7 +10899,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J43" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl-hyb</v>
@@ -10640,7 +10943,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J44" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl-hyb</v>
@@ -10684,7 +10987,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J45" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl-hyb</v>
@@ -10728,7 +11031,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="26" t="s">
         <v>16</v>
       </c>
@@ -10781,7 +11084,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B47" s="26"/>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
@@ -10830,7 +11133,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B48" s="26"/>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
@@ -10879,7 +11182,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B49" s="9"/>
       <c r="C49" s="10">
         <v>2020</v>
@@ -10936,7 +11239,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B50" s="15">
         <v>0.70862395894197172</v>
       </c>
@@ -10999,7 +11302,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B51" s="15">
         <v>0.71862395894197162</v>
       </c>
@@ -11062,7 +11365,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B52" s="15">
         <v>0.73112395894197169</v>
       </c>
@@ -11125,7 +11428,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B53" s="15">
         <v>0.74112395894197169</v>
       </c>
@@ -11188,7 +11491,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B54" s="15">
         <v>0.7511239589419717</v>
       </c>
@@ -11251,7 +11554,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B55" s="15">
         <v>0.79862395894197169</v>
       </c>
@@ -11314,7 +11617,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B56" s="15">
         <v>0.80612395894197164</v>
       </c>
@@ -11377,7 +11680,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B57" s="38">
         <v>0.81562395894197204</v>
       </c>
@@ -11441,7 +11744,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J58" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl-pih</v>
@@ -11485,7 +11788,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J59" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl-pih</v>
@@ -11529,7 +11832,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J60" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl-pih</v>
@@ -11573,7 +11876,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J61" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl-pih</v>
@@ -11617,7 +11920,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B62" s="13" t="s">
         <v>4</v>
       </c>
@@ -11664,7 +11967,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B63" s="25">
         <v>2015</v>
       </c>
@@ -11713,7 +12016,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B64" s="2" t="s">
         <v>11</v>
       </c>
@@ -11775,7 +12078,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B65" s="2" t="s">
         <v>9</v>
       </c>
@@ -11831,7 +12134,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J66" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl-pih</v>
@@ -11875,7 +12178,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="26" t="s">
         <v>13</v>
       </c>
@@ -11928,7 +12231,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B68" s="26"/>
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
@@ -11977,7 +12280,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B69" s="26"/>
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
@@ -12026,7 +12329,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B70" s="9"/>
       <c r="C70" s="10">
         <v>2020</v>
@@ -12077,7 +12380,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B71" s="5">
         <v>0.1951981309912254</v>
       </c>
@@ -12140,7 +12443,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B72" s="5">
         <v>0.29519813099122538</v>
       </c>
@@ -12203,7 +12506,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B73" s="5">
         <v>0.34519813099122537</v>
       </c>
@@ -12266,7 +12569,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B74" s="5">
         <v>0.39519813099122542</v>
       </c>
@@ -12329,7 +12632,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B75" s="5">
         <v>0.44519813099122535</v>
       </c>
@@ -12392,7 +12695,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:23" x14ac:dyDescent="0.45">
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -12440,7 +12743,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J77" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_dsl</v>
@@ -12484,7 +12787,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J78" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_dsl</v>
@@ -12528,7 +12831,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J79" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_dsl</v>
@@ -12572,7 +12875,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="26" t="s">
         <v>13</v>
       </c>
@@ -12625,7 +12928,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B81" s="26"/>
       <c r="C81" s="26"/>
       <c r="D81" s="26"/>
@@ -12674,7 +12977,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B82" s="26"/>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
@@ -12723,7 +13026,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B83" s="9"/>
       <c r="C83" s="10">
         <v>2020</v>
@@ -12780,7 +13083,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B84" s="5">
         <v>0.1770663632631358</v>
       </c>
@@ -12843,7 +13146,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B85" s="5">
         <v>0.27706636326313577</v>
       </c>
@@ -12906,7 +13209,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B86" s="5">
         <v>0.32706636326313571</v>
       </c>
@@ -12969,7 +13272,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B87" s="5">
         <v>0.37706636326313575</v>
       </c>
@@ -13032,7 +13335,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B88" s="5">
         <v>0.4270663632631358</v>
       </c>
@@ -13095,7 +13398,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B89" s="5">
         <v>0.47706636326313584</v>
       </c>
@@ -13158,7 +13461,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B90" s="5">
         <v>0.52706636326313583</v>
       </c>
@@ -13221,7 +13524,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:23" x14ac:dyDescent="0.45">
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -13269,7 +13572,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J92" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_dsl-hyb</v>
@@ -13313,7 +13616,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J93" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_dsl-hyb</v>
@@ -13357,7 +13660,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J94" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_dsl-hyb</v>
@@ -13401,7 +13704,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="26" t="s">
         <v>13</v>
       </c>
@@ -13454,7 +13757,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B96" s="26"/>
       <c r="C96" s="26"/>
       <c r="D96" s="26"/>
@@ -13503,7 +13806,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B97" s="26"/>
       <c r="C97" s="26"/>
       <c r="D97" s="26"/>
@@ -13552,7 +13855,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B98" s="9"/>
       <c r="C98" s="10">
         <v>2020</v>
@@ -13609,7 +13912,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B99" s="15">
         <v>0.6951981309912254</v>
       </c>
@@ -13672,7 +13975,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B100" s="15">
         <v>0.70519813099122541</v>
       </c>
@@ -13735,7 +14038,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B101" s="15">
         <v>0.71519813099122542</v>
       </c>
@@ -13798,7 +14101,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="102" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B102" s="15">
         <v>0.72519813099122543</v>
       </c>
@@ -13861,7 +14164,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="103" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B103" s="15">
         <v>0.73519813099122544</v>
       </c>
@@ -13924,7 +14227,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B104" s="15">
         <v>0.77769813099122542</v>
       </c>
@@ -13987,7 +14290,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="105" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B105" s="15">
         <v>0.78269813099122532</v>
       </c>
@@ -14050,7 +14353,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:23" x14ac:dyDescent="0.45">
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -14098,7 +14401,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="107" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J107" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_dsl-pih</v>
@@ -14142,7 +14445,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="108" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J108" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_dsl-pih</v>
@@ -14186,7 +14489,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J109" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_dsl-pih</v>
@@ -14230,7 +14533,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J110" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_dsl-pih</v>
@@ -14274,7 +14577,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B111" s="13" t="s">
         <v>5</v>
       </c>
@@ -14321,7 +14624,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="112" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B112" s="25">
         <v>2015</v>
       </c>
@@ -14370,7 +14673,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B113" s="2" t="s">
         <v>11</v>
       </c>
@@ -14432,7 +14735,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B114" s="2" t="s">
         <v>9</v>
       </c>
@@ -14488,7 +14791,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J115" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_dsl-pih</v>
@@ -14532,7 +14835,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="116" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B116" s="26" t="s">
         <v>14</v>
       </c>
@@ -14585,7 +14888,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B117" s="26"/>
       <c r="C117" s="26"/>
       <c r="D117" s="26"/>
@@ -14634,7 +14937,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B118" s="26"/>
       <c r="C118" s="26"/>
       <c r="D118" s="26"/>
@@ -14683,7 +14986,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B119" s="9"/>
       <c r="C119" s="10">
         <v>2020</v>
@@ -14734,7 +15037,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B120" s="5">
         <v>0.13362395894197165</v>
       </c>
@@ -14797,7 +15100,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B121" s="5">
         <v>0.23362395894197169</v>
       </c>
@@ -14860,7 +15163,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="122" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B122" s="5">
         <v>0.33362395894197167</v>
       </c>
@@ -14923,7 +15226,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="123" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B123" s="5">
         <v>0.38362395894197165</v>
       </c>
@@ -14986,7 +15289,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B124" s="5">
         <v>0.4336239589419717</v>
       </c>
@@ -15049,7 +15352,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="125" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B125" s="5">
         <v>0.48362395894197163</v>
       </c>
@@ -15112,7 +15415,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:23" x14ac:dyDescent="0.45">
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -15160,7 +15463,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="127" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J127" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_cng</v>
@@ -15204,7 +15507,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J128" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_cng</v>
@@ -15248,7 +15551,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="129" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J129" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_cng</v>
@@ -15292,7 +15595,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="130" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J130" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_cng</v>
@@ -15336,7 +15639,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="131" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B131" s="13" t="s">
         <v>6</v>
       </c>
@@ -15383,7 +15686,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="132" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B132" s="25">
         <v>2015</v>
       </c>
@@ -15432,7 +15735,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="133" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B133" s="2" t="s">
         <v>11</v>
       </c>
@@ -15494,7 +15797,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="134" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B134" s="2" t="s">
         <v>9</v>
       </c>
@@ -15550,7 +15853,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="135" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J135" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_cng</v>
@@ -15594,7 +15897,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="136" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B136" s="26" t="s">
         <v>15</v>
       </c>
@@ -15647,7 +15950,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="137" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B137" s="26"/>
       <c r="C137" s="26"/>
       <c r="D137" s="26"/>
@@ -15696,7 +15999,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="138" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B138" s="26"/>
       <c r="C138" s="26"/>
       <c r="D138" s="26"/>
@@ -15745,7 +16048,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="139" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B139" s="9"/>
       <c r="C139" s="10">
         <v>2020</v>
@@ -15802,7 +16105,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="140" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B140" s="5">
         <v>0.13362395894197165</v>
       </c>
@@ -15865,7 +16168,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="141" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B141" s="5">
         <v>0.23362395894197169</v>
       </c>
@@ -15928,7 +16231,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="142" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B142" s="5">
         <v>0.33362395894197167</v>
       </c>
@@ -15991,7 +16294,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="143" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B143" s="5">
         <v>0.38362395894197165</v>
       </c>
@@ -16054,7 +16357,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B144" s="5">
         <v>0.4336239589419717</v>
       </c>
@@ -16117,7 +16420,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="145" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B145" s="5">
         <v>0.48362395894197163</v>
       </c>
@@ -16180,7 +16483,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="146" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:23" x14ac:dyDescent="0.45">
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
@@ -16228,7 +16531,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="147" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J147" t="str">
         <f t="shared" si="33"/>
         <v>\I:Trd_car_lpg</v>
@@ -16272,7 +16575,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="148" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J148" t="str">
         <f t="shared" si="33"/>
         <v>\I:Trd_car_lpg</v>
@@ -16316,7 +16619,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="149" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J149" t="str">
         <f t="shared" si="33"/>
         <v>\I:Trd_car_lpg</v>
@@ -16360,7 +16663,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="150" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J150" t="str">
         <f t="shared" si="33"/>
         <v>\I:Trd_car_lpg</v>
@@ -16404,7 +16707,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="151" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B151" s="13" t="s">
         <v>7</v>
       </c>
@@ -16451,7 +16754,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="152" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B152" s="25">
         <v>2015</v>
       </c>
@@ -16500,7 +16803,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="153" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B153" s="2" t="s">
         <v>11</v>
       </c>
@@ -16553,7 +16856,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="154" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B154" s="2" t="s">
         <v>9</v>
       </c>
@@ -16606,7 +16909,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="155" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J155" t="str">
         <f t="shared" si="33"/>
         <v>\I:Trd_car_lpg</v>
@@ -16650,7 +16953,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="156" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B156" s="26" t="s">
         <v>17</v>
       </c>
@@ -16703,7 +17006,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="157" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B157" s="26"/>
       <c r="C157" s="26"/>
       <c r="D157" s="26"/>
@@ -16752,7 +17055,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="158" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B158" s="26"/>
       <c r="C158" s="26"/>
       <c r="D158" s="26"/>
@@ -16801,7 +17104,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="159" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B159" s="9"/>
       <c r="C159" s="10">
         <v>2020</v>
@@ -16858,7 +17161,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="160" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B160" s="5">
         <v>0.13362395894197165</v>
       </c>
@@ -16918,7 +17221,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="161" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B161" s="5">
         <v>0.23362395894197169</v>
       </c>
@@ -16978,7 +17281,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="162" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B162" s="5">
         <v>0.33362395894197167</v>
       </c>
@@ -17038,7 +17341,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="163" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B163" s="5">
         <v>0.38362395894197165</v>
       </c>
@@ -17098,7 +17401,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="164" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B164" s="5">
         <v>0.4336239589419717</v>
       </c>
@@ -17158,7 +17461,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="165" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B165" s="5">
         <v>0.48362395894197163</v>
       </c>
@@ -17218,7 +17521,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="166" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:23" x14ac:dyDescent="0.45">
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
@@ -17266,7 +17569,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="167" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J167" t="str">
         <f t="shared" si="33"/>
         <v>\I:Trd_car_E85</v>
@@ -17310,7 +17613,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="168" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J168" t="str">
         <f t="shared" si="33"/>
         <v>\I:Trd_car_E85</v>
@@ -17354,7 +17657,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="169" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J169" t="str">
         <f t="shared" si="33"/>
         <v>\I:Trd_car_E85</v>
@@ -17398,7 +17701,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="170" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B170" s="25">
         <v>2020</v>
       </c>
@@ -17447,7 +17750,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="171" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B171" s="2" t="s">
         <v>18</v>
       </c>
@@ -17509,7 +17812,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="172" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:23" x14ac:dyDescent="0.45">
       <c r="I172" s="20" t="s">
         <v>22</v>
       </c>
@@ -17556,7 +17859,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="173" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B173" s="26" t="s">
         <v>0</v>
       </c>
@@ -17609,7 +17912,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="174" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B174" s="26"/>
       <c r="C174" s="26"/>
       <c r="D174" s="26"/>
@@ -17658,7 +17961,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="175" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B175" s="26"/>
       <c r="C175" s="26"/>
       <c r="D175" s="26"/>
@@ -17707,7 +18010,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="176" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B176" s="9"/>
       <c r="C176" s="10">
         <v>2020</v>
@@ -17764,7 +18067,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="177" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B177" s="7">
         <v>120</v>
       </c>
@@ -17830,7 +18133,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="178" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B178" s="7">
         <v>160</v>
       </c>
@@ -17896,7 +18199,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="179" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B179" s="7">
         <v>200</v>
       </c>
@@ -17962,7 +18265,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="180" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B180" s="7">
         <v>250</v>
       </c>
@@ -18028,7 +18331,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="181" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B181" s="7">
         <v>300</v>
       </c>
@@ -18094,7 +18397,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="182" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B182" s="7">
         <v>350</v>
       </c>
@@ -18160,7 +18463,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="183" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B183" s="7">
         <v>400</v>
       </c>
@@ -18226,7 +18529,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="184" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B184" s="7">
         <v>500</v>
       </c>
@@ -18289,7 +18592,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J185" t="str">
         <f t="shared" si="33"/>
         <v>Trd_car_elc</v>
@@ -18333,7 +18636,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="186" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J186" t="str">
         <f t="shared" si="33"/>
         <v>Trd_car_elc</v>
@@ -18377,7 +18680,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="187" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:23" x14ac:dyDescent="0.45">
       <c r="J187" t="str">
         <f t="shared" si="33"/>
         <v>Trd_car_elc</v>
@@ -18421,7 +18724,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="188" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B188" s="26" t="s">
         <v>12</v>
       </c>
@@ -18474,7 +18777,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="189" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B189" s="26"/>
       <c r="C189" s="32"/>
       <c r="D189" s="33"/>
@@ -18523,7 +18826,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="190" spans="2:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B190" s="26"/>
       <c r="C190" s="35"/>
       <c r="D190" s="36"/>
@@ -18572,7 +18875,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="191" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B191" s="9"/>
       <c r="C191" s="10">
         <v>2020</v>
@@ -18629,7 +18932,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="192" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B192" s="12">
         <v>0.94673400582930467</v>
       </c>
@@ -18697,7 +19000,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="193" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B193" s="12">
         <v>0.90615969129376306</v>
       </c>
@@ -18765,7 +19068,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="194" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B194" s="12">
         <v>0.86558537675822134</v>
       </c>
@@ -18833,7 +19136,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="195" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B195" s="12">
         <v>0.82501106222267984</v>
       </c>
@@ -18901,7 +19204,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="196" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B196" s="12">
         <v>0.7868712065592709</v>
       </c>
@@ -18969,7 +19272,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="197" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B197" s="12">
         <v>0.75400601178548199</v>
       </c>
@@ -19037,7 +19340,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="198" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B198" s="12">
         <v>0.72222279873264106</v>
       </c>
@@ -19105,7 +19408,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="199" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B199" s="12">
         <v>0.69584949428453891</v>
       </c>
@@ -19181,6 +19484,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2B1BA0128C8824692540477CACFD64B" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fa4f5b6f8053053fe6f03e10a5924fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfd3152f43de3846f72b0cf37d3c8fc9">
     <xsd:element name="properties">
@@ -19294,32 +19612,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9553712-D58A-4CDE-99C2-262D82C4B60C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA1A3B8B-F4C8-4D02-99CE-92C1CB940F40}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -19334,9 +19630,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA1A3B8B-F4C8-4D02-99CE-92C1CB940F40}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9553712-D58A-4CDE-99C2-262D82C4B60C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/SubRES_Tmpl/SubRES_dem-Transport.xlsx
+++ b/SubRES_Tmpl/SubRES_dem-Transport.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA72E32C-AB9A-4900-92A9-C972922DE3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D604C287-DF4F-4000-9F03-154F2B21A12A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="864" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="864" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comm" sheetId="11" r:id="rId1"/>
@@ -34,17 +34,12 @@
     <definedName name="TSUB_COST">'[1]TechRep-Doc'!#REF!</definedName>
     <definedName name="x">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -306,9 +301,6 @@
     <t>comm-OUT</t>
   </si>
   <si>
-    <t>COST</t>
-  </si>
-  <si>
     <t>ELCINDEA02</t>
   </si>
   <si>
@@ -337,6 +329,9 @@
   </si>
   <si>
     <t>ENV_ACT~CO2IND</t>
+  </si>
+  <si>
+    <t>ACT_COST</t>
   </si>
 </sst>
 </file>
@@ -8150,7 +8145,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="New Microsoft Excel Worksheet"/>
@@ -8167,7 +8162,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -8286,7 +8281,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -8405,9 +8400,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8445,9 +8440,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8480,9 +8475,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8515,9 +8527,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8694,30 +8723,30 @@
   <dimension ref="B3:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.06640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.06640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.53125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.06640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -8728,7 +8757,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>77</v>
       </c>
@@ -8760,22 +8789,22 @@
         <v>83</v>
       </c>
       <c r="O4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R4" t="s">
         <v>38</v>
       </c>
       <c r="S4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>66</v>
       </c>
@@ -8813,7 +8842,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>72</v>
       </c>
@@ -8845,7 +8874,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>67</v>
       </c>
@@ -8874,7 +8903,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>68</v>
       </c>
@@ -8906,7 +8935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>69</v>
       </c>
@@ -8935,7 +8964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>71</v>
       </c>
@@ -8964,7 +8993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>73</v>
       </c>
@@ -8993,7 +9022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>76</v>
       </c>
@@ -9004,10 +9033,10 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
         <v>91</v>
-      </c>
-      <c r="G12" t="s">
-        <v>92</v>
       </c>
       <c r="I12" t="s">
         <v>74</v>
@@ -9024,7 +9053,7 @@
         <v>TRDELC</v>
       </c>
       <c r="P12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="16">
         <f>V12/SUM($V$12:$V$16)</f>
@@ -9037,9 +9066,9 @@
         <v>594.14</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="P13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="16">
         <f>V13/SUM($V$12:$V$16)</f>
@@ -9049,9 +9078,9 @@
         <v>124.44</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="P14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="16">
         <f>V14/SUM($V$12:$V$16)</f>
@@ -9061,9 +9090,9 @@
         <v>1201.31</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="P15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q15" s="16">
         <f>V15/SUM($V$12:$V$16)</f>
@@ -9073,9 +9102,9 @@
         <v>1420.31</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="P16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="16">
         <f>V16/SUM($V$12:$V$16)</f>
@@ -9101,23 +9130,23 @@
       <selection activeCell="S15" sqref="S15:W16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.59765625" customWidth="1"/>
-    <col min="2" max="2" width="38.265625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.73046875" customWidth="1"/>
-    <col min="4" max="6" width="6.265625" customWidth="1"/>
-    <col min="10" max="10" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="6" width="6.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="62.86328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.86328125" customWidth="1"/>
+    <col min="18" max="18" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="22" t="s">
         <v>10</v>
       </c>
@@ -9136,7 +9165,7 @@
         <v>Trd_car_gsl</v>
       </c>
     </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
@@ -9161,7 +9190,7 @@
         <v>Trd_car_gsl-hyb</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I3" s="17">
         <f>31536000/10^9</f>
         <v>3.1536000000000002E-2</v>
@@ -9180,7 +9209,7 @@
         <v>Trd_car_gsl-pih</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I4" s="18">
         <v>3.7999999999999999E-2</v>
       </c>
@@ -9198,7 +9227,7 @@
         <v>Trd_car_dsl</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I5" s="21">
         <f>1.406/26.137</f>
         <v>5.3793472854573969E-2</v>
@@ -9217,7 +9246,7 @@
         <v>Trd_car_dsl-hyb</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I6" s="21">
         <v>2.5590000000000002E-2</v>
       </c>
@@ -9235,7 +9264,7 @@
         <v>Trd_car_dsl-pih</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="Q7" t="s">
         <v>31</v>
       </c>
@@ -9247,7 +9276,7 @@
         <v>Trd_car_cng</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="Q8" t="s">
         <v>32</v>
       </c>
@@ -9259,7 +9288,7 @@
         <v>\I:Trd_car_lpg</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q9" t="s">
         <v>36</v>
       </c>
@@ -9271,7 +9300,7 @@
         <v>\I:Trd_car_E85</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
@@ -9286,7 +9315,7 @@
         <v>Trd_car_elc</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25">
         <v>2015</v>
       </c>
@@ -9303,7 +9332,7 @@
         <v>Trd_car_hh2</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -9323,7 +9352,7 @@
         <v>0.46605286801155565</v>
       </c>
     </row>
-    <row r="13" spans="2:23" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -9340,13 +9369,13 @@
         <v>0.90149999999999997</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="40"/>
       <c r="C14" s="41"/>
       <c r="D14" s="42"/>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="2:23" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="40"/>
       <c r="C15" s="41"/>
       <c r="D15" s="42"/>
@@ -9362,7 +9391,7 @@
       <c r="V15" s="45"/>
       <c r="W15" s="45"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
         <v>38</v>
       </c>
@@ -9410,7 +9439,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="26" t="s">
         <v>16</v>
       </c>
@@ -9466,7 +9495,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -9518,7 +9547,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -9570,7 +9599,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>0</v>
       </c>
@@ -9626,7 +9655,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>0.13362395894197165</v>
       </c>
@@ -9692,7 +9721,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <v>0.23362395894197169</v>
       </c>
@@ -9758,7 +9787,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>0.33362395894197167</v>
       </c>
@@ -9824,7 +9853,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>0.38362395894197165</v>
       </c>
@@ -9890,7 +9919,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>0.4336239589419717</v>
       </c>
@@ -9956,7 +9985,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>0.48362395894197163</v>
       </c>
@@ -10022,7 +10051,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -10070,7 +10099,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J28" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl</v>
@@ -10114,7 +10143,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J29" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl</v>
@@ -10158,7 +10187,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J30" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl</v>
@@ -10202,7 +10231,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="26" t="s">
         <v>16</v>
       </c>
@@ -10255,7 +10284,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
@@ -10304,7 +10333,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
@@ -10353,7 +10382,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
       <c r="C34" s="10">
         <v>2020</v>
@@ -10410,7 +10439,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <v>0.23611493530451888</v>
       </c>
@@ -10473,7 +10502,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <v>0.33611493530451886</v>
       </c>
@@ -10536,7 +10565,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <v>0.38611493530451879</v>
       </c>
@@ -10599,7 +10628,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
         <v>0.43611493530451884</v>
       </c>
@@ -10662,7 +10691,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" s="5">
         <v>0.48611493530451888</v>
       </c>
@@ -10725,7 +10754,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" s="5">
         <v>0.53611493530451892</v>
       </c>
@@ -10788,7 +10817,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" s="5">
         <v>0.58611493530451886</v>
       </c>
@@ -10851,7 +10880,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -10899,7 +10928,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J43" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl-hyb</v>
@@ -10943,7 +10972,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J44" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl-hyb</v>
@@ -10987,7 +11016,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J45" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl-hyb</v>
@@ -11031,7 +11060,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="26" t="s">
         <v>16</v>
       </c>
@@ -11084,7 +11113,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" s="26"/>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
@@ -11133,7 +11162,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48" s="26"/>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
@@ -11182,7 +11211,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B49" s="9"/>
       <c r="C49" s="10">
         <v>2020</v>
@@ -11239,7 +11268,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B50" s="15">
         <v>0.70862395894197172</v>
       </c>
@@ -11302,7 +11331,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B51" s="15">
         <v>0.71862395894197162</v>
       </c>
@@ -11365,7 +11394,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52" s="15">
         <v>0.73112395894197169</v>
       </c>
@@ -11428,7 +11457,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B53" s="15">
         <v>0.74112395894197169</v>
       </c>
@@ -11491,7 +11520,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B54" s="15">
         <v>0.7511239589419717</v>
       </c>
@@ -11554,7 +11583,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B55" s="15">
         <v>0.79862395894197169</v>
       </c>
@@ -11617,7 +11646,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B56" s="15">
         <v>0.80612395894197164</v>
       </c>
@@ -11680,7 +11709,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B57" s="38">
         <v>0.81562395894197204</v>
       </c>
@@ -11744,7 +11773,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J58" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl-pih</v>
@@ -11788,7 +11817,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J59" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl-pih</v>
@@ -11832,7 +11861,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J60" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl-pih</v>
@@ -11876,7 +11905,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J61" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl-pih</v>
@@ -11920,7 +11949,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B62" s="13" t="s">
         <v>4</v>
       </c>
@@ -11967,7 +11996,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B63" s="25">
         <v>2015</v>
       </c>
@@ -12016,7 +12045,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>11</v>
       </c>
@@ -12078,7 +12107,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>9</v>
       </c>
@@ -12134,7 +12163,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J66" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_gsl-pih</v>
@@ -12178,7 +12207,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="s">
         <v>13</v>
       </c>
@@ -12231,7 +12260,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B68" s="26"/>
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
@@ -12280,7 +12309,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B69" s="26"/>
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
@@ -12329,7 +12358,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B70" s="9"/>
       <c r="C70" s="10">
         <v>2020</v>
@@ -12380,7 +12409,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B71" s="5">
         <v>0.1951981309912254</v>
       </c>
@@ -12443,7 +12472,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B72" s="5">
         <v>0.29519813099122538</v>
       </c>
@@ -12506,7 +12535,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B73" s="5">
         <v>0.34519813099122537</v>
       </c>
@@ -12569,7 +12598,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B74" s="5">
         <v>0.39519813099122542</v>
       </c>
@@ -12632,7 +12661,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B75" s="5">
         <v>0.44519813099122535</v>
       </c>
@@ -12695,7 +12724,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -12743,7 +12772,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J77" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_dsl</v>
@@ -12787,7 +12816,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J78" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_dsl</v>
@@ -12831,7 +12860,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J79" t="str">
         <f t="shared" si="3"/>
         <v>Trd_car_dsl</v>
@@ -12875,7 +12904,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="26" t="s">
         <v>13</v>
       </c>
@@ -12928,7 +12957,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B81" s="26"/>
       <c r="C81" s="26"/>
       <c r="D81" s="26"/>
@@ -12977,7 +13006,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B82" s="26"/>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
@@ -13026,7 +13055,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B83" s="9"/>
       <c r="C83" s="10">
         <v>2020</v>
@@ -13083,7 +13112,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B84" s="5">
         <v>0.1770663632631358</v>
       </c>
@@ -13146,7 +13175,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B85" s="5">
         <v>0.27706636326313577</v>
       </c>
@@ -13209,7 +13238,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B86" s="5">
         <v>0.32706636326313571</v>
       </c>
@@ -13272,7 +13301,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B87" s="5">
         <v>0.37706636326313575</v>
       </c>
@@ -13335,7 +13364,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B88" s="5">
         <v>0.4270663632631358</v>
       </c>
@@ -13398,7 +13427,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B89" s="5">
         <v>0.47706636326313584</v>
       </c>
@@ -13461,7 +13490,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B90" s="5">
         <v>0.52706636326313583</v>
       </c>
@@ -13524,7 +13553,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -13572,7 +13601,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J92" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_dsl-hyb</v>
@@ -13616,7 +13645,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J93" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_dsl-hyb</v>
@@ -13660,7 +13689,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J94" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_dsl-hyb</v>
@@ -13704,7 +13733,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="26" t="s">
         <v>13</v>
       </c>
@@ -13757,7 +13786,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B96" s="26"/>
       <c r="C96" s="26"/>
       <c r="D96" s="26"/>
@@ -13806,7 +13835,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B97" s="26"/>
       <c r="C97" s="26"/>
       <c r="D97" s="26"/>
@@ -13855,7 +13884,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B98" s="9"/>
       <c r="C98" s="10">
         <v>2020</v>
@@ -13912,7 +13941,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B99" s="15">
         <v>0.6951981309912254</v>
       </c>
@@ -13975,7 +14004,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B100" s="15">
         <v>0.70519813099122541</v>
       </c>
@@ -14038,7 +14067,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B101" s="15">
         <v>0.71519813099122542</v>
       </c>
@@ -14101,7 +14130,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="102" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B102" s="15">
         <v>0.72519813099122543</v>
       </c>
@@ -14164,7 +14193,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="103" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B103" s="15">
         <v>0.73519813099122544</v>
       </c>
@@ -14227,7 +14256,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B104" s="15">
         <v>0.77769813099122542</v>
       </c>
@@ -14290,7 +14319,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="105" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B105" s="15">
         <v>0.78269813099122532</v>
       </c>
@@ -14353,7 +14382,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -14401,7 +14430,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="107" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J107" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_dsl-pih</v>
@@ -14445,7 +14474,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="108" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J108" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_dsl-pih</v>
@@ -14489,7 +14518,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="109" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J109" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_dsl-pih</v>
@@ -14533,7 +14562,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J110" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_dsl-pih</v>
@@ -14577,7 +14606,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B111" s="13" t="s">
         <v>5</v>
       </c>
@@ -14624,7 +14653,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="112" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B112" s="25">
         <v>2015</v>
       </c>
@@ -14673,7 +14702,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B113" s="2" t="s">
         <v>11</v>
       </c>
@@ -14735,7 +14764,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B114" s="2" t="s">
         <v>9</v>
       </c>
@@ -14791,7 +14820,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J115" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_dsl-pih</v>
@@ -14835,7 +14864,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="116" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="26" t="s">
         <v>14</v>
       </c>
@@ -14888,7 +14917,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B117" s="26"/>
       <c r="C117" s="26"/>
       <c r="D117" s="26"/>
@@ -14937,7 +14966,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B118" s="26"/>
       <c r="C118" s="26"/>
       <c r="D118" s="26"/>
@@ -14986,7 +15015,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B119" s="9"/>
       <c r="C119" s="10">
         <v>2020</v>
@@ -15037,7 +15066,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="120" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B120" s="5">
         <v>0.13362395894197165</v>
       </c>
@@ -15100,7 +15129,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B121" s="5">
         <v>0.23362395894197169</v>
       </c>
@@ -15163,7 +15192,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="122" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B122" s="5">
         <v>0.33362395894197167</v>
       </c>
@@ -15226,7 +15255,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="123" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B123" s="5">
         <v>0.38362395894197165</v>
       </c>
@@ -15289,7 +15318,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B124" s="5">
         <v>0.4336239589419717</v>
       </c>
@@ -15352,7 +15381,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="125" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B125" s="5">
         <v>0.48362395894197163</v>
       </c>
@@ -15415,7 +15444,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="126" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -15463,7 +15492,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="127" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J127" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_cng</v>
@@ -15507,7 +15536,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="128" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J128" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_cng</v>
@@ -15551,7 +15580,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="129" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J129" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_cng</v>
@@ -15595,7 +15624,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="130" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J130" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_cng</v>
@@ -15639,7 +15668,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="131" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B131" s="13" t="s">
         <v>6</v>
       </c>
@@ -15686,7 +15715,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="132" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B132" s="25">
         <v>2015</v>
       </c>
@@ -15735,7 +15764,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="133" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B133" s="2" t="s">
         <v>11</v>
       </c>
@@ -15797,7 +15826,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="134" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B134" s="2" t="s">
         <v>9</v>
       </c>
@@ -15853,7 +15882,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="135" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J135" t="str">
         <f t="shared" si="18"/>
         <v>Trd_car_cng</v>
@@ -15897,7 +15926,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="136" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="26" t="s">
         <v>15</v>
       </c>
@@ -15950,7 +15979,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="137" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B137" s="26"/>
       <c r="C137" s="26"/>
       <c r="D137" s="26"/>
@@ -15999,7 +16028,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="138" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B138" s="26"/>
       <c r="C138" s="26"/>
       <c r="D138" s="26"/>
@@ -16048,7 +16077,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="139" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B139" s="9"/>
       <c r="C139" s="10">
         <v>2020</v>
@@ -16105,7 +16134,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="140" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B140" s="5">
         <v>0.13362395894197165</v>
       </c>
@@ -16168,7 +16197,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="141" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B141" s="5">
         <v>0.23362395894197169</v>
       </c>
@@ -16231,7 +16260,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="142" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B142" s="5">
         <v>0.33362395894197167</v>
       </c>
@@ -16294,7 +16323,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="143" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B143" s="5">
         <v>0.38362395894197165</v>
       </c>
@@ -16357,7 +16386,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B144" s="5">
         <v>0.4336239589419717</v>
       </c>
@@ -16420,7 +16449,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="145" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B145" s="5">
         <v>0.48362395894197163</v>
       </c>
@@ -16483,7 +16512,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="146" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
@@ -16531,7 +16560,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="147" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J147" t="str">
         <f t="shared" si="33"/>
         <v>\I:Trd_car_lpg</v>
@@ -16575,7 +16604,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="148" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J148" t="str">
         <f t="shared" si="33"/>
         <v>\I:Trd_car_lpg</v>
@@ -16619,7 +16648,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="149" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J149" t="str">
         <f t="shared" si="33"/>
         <v>\I:Trd_car_lpg</v>
@@ -16663,7 +16692,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="150" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J150" t="str">
         <f t="shared" si="33"/>
         <v>\I:Trd_car_lpg</v>
@@ -16707,7 +16736,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="151" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B151" s="13" t="s">
         <v>7</v>
       </c>
@@ -16754,7 +16783,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="152" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B152" s="25">
         <v>2015</v>
       </c>
@@ -16803,7 +16832,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="153" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B153" s="2" t="s">
         <v>11</v>
       </c>
@@ -16856,7 +16885,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="154" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B154" s="2" t="s">
         <v>9</v>
       </c>
@@ -16909,7 +16938,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="155" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J155" t="str">
         <f t="shared" si="33"/>
         <v>\I:Trd_car_lpg</v>
@@ -16953,7 +16982,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="156" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="26" t="s">
         <v>17</v>
       </c>
@@ -17006,7 +17035,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="157" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B157" s="26"/>
       <c r="C157" s="26"/>
       <c r="D157" s="26"/>
@@ -17055,7 +17084,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="158" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B158" s="26"/>
       <c r="C158" s="26"/>
       <c r="D158" s="26"/>
@@ -17104,7 +17133,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="159" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B159" s="9"/>
       <c r="C159" s="10">
         <v>2020</v>
@@ -17161,7 +17190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="160" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B160" s="5">
         <v>0.13362395894197165</v>
       </c>
@@ -17221,7 +17250,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="161" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B161" s="5">
         <v>0.23362395894197169</v>
       </c>
@@ -17281,7 +17310,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="162" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B162" s="5">
         <v>0.33362395894197167</v>
       </c>
@@ -17341,7 +17370,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="163" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B163" s="5">
         <v>0.38362395894197165</v>
       </c>
@@ -17401,7 +17430,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="164" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="5">
         <v>0.4336239589419717</v>
       </c>
@@ -17461,7 +17490,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="165" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B165" s="5">
         <v>0.48362395894197163</v>
       </c>
@@ -17521,7 +17550,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="166" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
@@ -17569,7 +17598,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="167" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J167" t="str">
         <f t="shared" si="33"/>
         <v>\I:Trd_car_E85</v>
@@ -17613,7 +17642,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="168" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J168" t="str">
         <f t="shared" si="33"/>
         <v>\I:Trd_car_E85</v>
@@ -17657,7 +17686,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="169" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J169" t="str">
         <f t="shared" si="33"/>
         <v>\I:Trd_car_E85</v>
@@ -17701,7 +17730,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="170" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="25">
         <v>2020</v>
       </c>
@@ -17750,7 +17779,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="171" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B171" s="2" t="s">
         <v>18</v>
       </c>
@@ -17812,7 +17841,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="172" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I172" s="20" t="s">
         <v>22</v>
       </c>
@@ -17859,7 +17888,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="173" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="26" t="s">
         <v>0</v>
       </c>
@@ -17912,7 +17941,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="174" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B174" s="26"/>
       <c r="C174" s="26"/>
       <c r="D174" s="26"/>
@@ -17961,7 +17990,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="175" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B175" s="26"/>
       <c r="C175" s="26"/>
       <c r="D175" s="26"/>
@@ -18010,7 +18039,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="176" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B176" s="9"/>
       <c r="C176" s="10">
         <v>2020</v>
@@ -18067,7 +18096,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="177" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B177" s="7">
         <v>120</v>
       </c>
@@ -18133,7 +18162,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="178" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B178" s="7">
         <v>160</v>
       </c>
@@ -18199,7 +18228,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="179" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B179" s="7">
         <v>200</v>
       </c>
@@ -18265,7 +18294,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="180" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B180" s="7">
         <v>250</v>
       </c>
@@ -18331,7 +18360,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="181" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B181" s="7">
         <v>300</v>
       </c>
@@ -18397,7 +18426,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="182" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B182" s="7">
         <v>350</v>
       </c>
@@ -18463,7 +18492,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="183" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B183" s="7">
         <v>400</v>
       </c>
@@ -18529,7 +18558,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="184" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B184" s="7">
         <v>500</v>
       </c>
@@ -18592,7 +18621,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J185" t="str">
         <f t="shared" si="33"/>
         <v>Trd_car_elc</v>
@@ -18636,7 +18665,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="186" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J186" t="str">
         <f t="shared" si="33"/>
         <v>Trd_car_elc</v>
@@ -18680,7 +18709,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="187" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J187" t="str">
         <f t="shared" si="33"/>
         <v>Trd_car_elc</v>
@@ -18724,7 +18753,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="188" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="26" t="s">
         <v>12</v>
       </c>
@@ -18777,7 +18806,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="189" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="26"/>
       <c r="C189" s="32"/>
       <c r="D189" s="33"/>
@@ -18826,7 +18855,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="190" spans="2:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="26"/>
       <c r="C190" s="35"/>
       <c r="D190" s="36"/>
@@ -18875,7 +18904,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="191" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="9"/>
       <c r="C191" s="10">
         <v>2020</v>
@@ -18932,7 +18961,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="192" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B192" s="12">
         <v>0.94673400582930467</v>
       </c>
@@ -19000,7 +19029,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="193" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B193" s="12">
         <v>0.90615969129376306</v>
       </c>
@@ -19068,7 +19097,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="194" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B194" s="12">
         <v>0.86558537675822134</v>
       </c>
@@ -19136,7 +19165,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="195" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B195" s="12">
         <v>0.82501106222267984</v>
       </c>
@@ -19204,7 +19233,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="196" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B196" s="12">
         <v>0.7868712065592709</v>
       </c>
@@ -19272,7 +19301,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="197" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B197" s="12">
         <v>0.75400601178548199</v>
       </c>
@@ -19340,7 +19369,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="198" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B198" s="12">
         <v>0.72222279873264106</v>
       </c>
@@ -19408,7 +19437,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="199" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B199" s="12">
         <v>0.69584949428453891</v>
       </c>
@@ -19490,15 +19519,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2B1BA0128C8824692540477CACFD64B" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fa4f5b6f8053053fe6f03e10a5924fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfd3152f43de3846f72b0cf37d3c8fc9">
     <xsd:element name="properties">
@@ -19612,6 +19632,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA1A3B8B-F4C8-4D02-99CE-92C1CB940F40}">
   <ds:schemaRefs>
@@ -19622,14 +19651,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A17DC26-DCEA-4E6B-A7AA-D29914C7725A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9553712-D58A-4CDE-99C2-262D82C4B60C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19643,4 +19664,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A17DC26-DCEA-4E6B-A7AA-D29914C7725A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>